--- a/biology/Botanique/Ledermanniella/Ledermanniella.xlsx
+++ b/biology/Botanique/Ledermanniella/Ledermanniella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ledermanniella est un genre de plantes à fleurs de la famille des Podostemaceae. Son nom rend hommage au botaniste Carl Ludwig Ledermann.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (13 août 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (13 août 2017) :
 Ledermanniella abbayesii (G. Taylor) C. Cusset
 Ledermanniella adamesii (G. Taylor) C. Cusset
 Ledermanniella aloides (Engl.) C. Cusset
@@ -526,7 +540,7 @@
 Ledermanniella tenax (C.H. Wright) C. Cusset
 Ledermanniella thollonii (Baill.) C. Cusset
 Ledermanniella warmingiana (Gilg) C. Cusset
-Selon Catalogue of Life                                   (13 août 2017)[3] :
+Selon Catalogue of Life                                   (13 août 2017) :
 Ledermanniella abbayesii (G. Taylor) C. Cusset
 Ledermanniella achoundongii (J.J.Schenk, Herschlag &amp; D.W.Thomas) comb. ined.
 Ledermanniella adamesii (G. Taylor) C. Cusset
@@ -577,7 +591,7 @@
 Ledermanniella torrei C. Cusset
 Ledermanniella variabilis (G. Taylor) C. Cusset
 Ledermanniella warmingiana (Gilg) C. Cusset
-Selon NCBI  (13 août 2017)[4] :
+Selon NCBI  (13 août 2017) :
 Ledermanniella bifurcata
 Ledermanniella bowlingii
 Ledermanniella keayi
@@ -589,7 +603,7 @@
 Ledermanniella pellucida
 Ledermanniella pusilla
 Ledermanniella sanagaensis
-Selon The Plant List            (13 août 2017)[5] :
+Selon The Plant List            (13 août 2017) :
 Ledermanniella aloides (Engl.) C.Cusset
 Ledermanniella bifurcata (Engl.) C.Cusset
 Ledermanniella bosii C. Cusset
@@ -601,7 +615,7 @@
 Ledermanniella tenax (C.H.Wright) C.Cusset
 Ledermanniella thollonii (Baill.) C. Cusset
 Ledermanniella warmingiana (Gilg) C.Cusset
-Selon Tropicos                                           (13 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Ledermanniella abbayesii (G. Taylor) C. Cusset
 Ledermanniella aloides (Engl.) C. Cusset
 Ledermanniella annithomae C. Cusset
